--- a/dd.xlsx
+++ b/dd.xlsx
@@ -1512,28 +1512,28 @@
         <v>5890</v>
       </c>
       <c r="C31" t="n">
-        <v>8505</v>
+        <v>12900</v>
       </c>
       <c r="D31" t="n">
         <v>5725</v>
       </c>
       <c r="E31" t="n">
-        <v>8460</v>
+        <v>10570</v>
       </c>
       <c r="F31" t="n">
-        <v>31151490.65751612</v>
+        <v>119779465.8168199</v>
       </c>
       <c r="G31" t="n">
-        <v>1112</v>
+        <v>2870</v>
       </c>
       <c r="H31" t="n">
         <v>6234</v>
       </c>
       <c r="I31" t="n">
-        <v>1.357074109720885</v>
+        <v>1.695540583894771</v>
       </c>
       <c r="J31" t="n">
-        <v>1.77699550170106</v>
+        <v>2.220194143378275</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
